--- a/Result/DailyFiles/2024-08-22.xlsx
+++ b/Result/DailyFiles/2024-08-22.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BT2"/>
+  <dimension ref="A1:BT3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -812,28 +812,20 @@
       <c r="D2" t="n">
         <v>4.37</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
+      <c r="E2" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4.37</v>
       </c>
       <c r="G2" t="n">
         <v>4.37</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>-0.48</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>302</t>
-        </is>
+      <c r="H2" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="I2" t="n">
+        <v>302</v>
       </c>
       <c r="J2" t="n">
         <v>2024</v>
@@ -1012,10 +1004,8 @@
       <c r="BL2" t="b">
         <v>0</v>
       </c>
-      <c r="BM2" t="inlineStr">
-        <is>
-          <t>4804</t>
-        </is>
+      <c r="BM2" t="n">
+        <v>4804</v>
       </c>
       <c r="BN2" t="n">
         <v>0.5</v>
@@ -1034,12 +1024,256 @@
       <c r="BR2" t="n">
         <v>4.37</v>
       </c>
-      <c r="BS2" t="inlineStr">
+      <c r="BS2" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="BT2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B3" t="n">
+        <v>495</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2164</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>-0.48</t>
         </is>
       </c>
-      <c r="BT2" t="inlineStr">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>2024</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>08/22</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2024/08/22</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2024-08-22</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>4.757137236920628</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4.824721286897432</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.06758404997680412</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-0.01933119711661145</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-0.01933119711661145</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-0.04825285286019267</v>
+      </c>
+      <c r="T3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="V3" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>51.16678105696636</v>
+      </c>
+      <c r="Y3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1362.05</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1451.32</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>-6.150952236584625</v>
+      </c>
+      <c r="AC3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>4.676</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>4.796</v>
+      </c>
+      <c r="AF3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.1596608906400691</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.1820519156724347</v>
+      </c>
+      <c r="AI3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>-0.1200000000000001</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>-0.08949999999999925</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>4.796</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.3477203958417557</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>5.491440791683512</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>4.100559208316489</v>
+      </c>
+      <c r="AP3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>37.2549019607843</v>
+      </c>
+      <c r="AR3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>-0.4799999999999995</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>-2164</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>-1148</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>-495</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>-276</v>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="AY3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="inlineStr">
+        <is>
+          <t>&lt;span style='color:green;'&gt;[股價低於短期均線，短期均線低於長期均線]：賣出信號&lt;/span&gt;&lt;br&gt;均線:下降趨勢</t>
+        </is>
+      </c>
+      <c r="BB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>-0.025</v>
+      </c>
+      <c r="BE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG3" t="inlineStr">
+        <is>
+          <t>均線:下降趨勢</t>
+        </is>
+      </c>
+      <c r="BH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0.02333333333333333</v>
+      </c>
+      <c r="BL3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM3" t="inlineStr">
+        <is>
+          <t>4804</t>
+        </is>
+      </c>
+      <c r="BN3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BO3" t="inlineStr">
+        <is>
+          <t>負區間</t>
+        </is>
+      </c>
+      <c r="BP3" t="n">
+        <v>4.193439348129985</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>7.136840550088845</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="BS3" t="inlineStr">
+        <is>
+          <t>-0.48</t>
+        </is>
+      </c>
+      <c r="BT3" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
